--- a/variables_factores.xlsx
+++ b/variables_factores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alaba\Documents\Ciencia_de_Datos\Ciencia_Datos_IV\Practicas_Externas\Proyecto_Shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8468477-E629-4F95-8A3C-0BD1CC10DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44816360-B5A9-4FCE-A09E-AF559966B217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E678CD98-7603-4F8D-A196-0325C6093512}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{E678CD98-7603-4F8D-A196-0325C6093512}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -67,18 +67,12 @@
     <t>0,5,10,35,45,55,70</t>
   </si>
   <si>
-    <t>Muy Buena,Buena,Normal,Insalubre,Peligrosa,Mortal</t>
-  </si>
-  <si>
     <t>Tem</t>
   </si>
   <si>
     <t>Hum</t>
   </si>
   <si>
-    <t>labels_ESP</t>
-  </si>
-  <si>
     <t>labels_ENG</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>0,25,35,100</t>
   </si>
   <si>
-    <t>Baja,Normal, Alta</t>
-  </si>
-  <si>
     <t>0,50,70,100</t>
   </si>
   <si>
@@ -112,13 +103,22 @@
     <t>0,20,100</t>
   </si>
   <si>
-    <t>Descargada,Cargada</t>
-  </si>
-  <si>
     <t>Downloaded,Normal</t>
   </si>
   <si>
     <t>#BC544B,#59BFFF</t>
+  </si>
+  <si>
+    <t>ទាប, ធម្មតា, ខ្ពស់។</t>
+  </si>
+  <si>
+    <t>labels_CAM</t>
+  </si>
+  <si>
+    <t>ល្អណាស់, ល្អ, មធ្យម, មិនមានសុខភាពល្អ, គ្រោះថ្នាក់, ស្លាប់</t>
+  </si>
+  <si>
+    <t>មិនបានផ្ទុក, ផ្ទុក</t>
   </si>
 </sst>
 </file>
@@ -154,9 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +477,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,47 +496,47 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -544,13 +547,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,30 +615,30 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
